--- a/gamen_seni.xlsx
+++ b/gamen_seni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/Design documents/Design-document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{89B82125-C198-4D89-A318-474160891234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B92D575A-BB24-45B8-BDE5-AF67B0DEFAAA}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{89B82125-C198-4D89-A318-474160891234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46FD1836-EB1D-4C07-A8A8-7DF3EFECEDCD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -19,18 +19,21 @@
     <sheet name="画面遷移図_ログイン" sheetId="9" r:id="rId4"/>
     <sheet name="画面遷移図_新規会員登録" sheetId="6" r:id="rId5"/>
     <sheet name="画面遷移図_予定" sheetId="8" r:id="rId6"/>
+    <sheet name="画面遷移図_設定" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">画面遷移図!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">画面遷移図_TOP!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図_ログイン!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">画面遷移図_新規会員登録!$A$1:$AC$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">画面遷移図_設定!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">画面遷移図_予定!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">画面遷移図!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">画面遷移図_TOP!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図_ログイン!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">画面遷移図_新規会員登録!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">画面遷移図_設定!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">画面遷移図_予定!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
   </definedNames>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -366,19 +369,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>予定の日を選択</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>予約登録を押す</t>
     <rPh sb="0" eb="2">
       <t>ヨヤク</t>
@@ -395,6 +385,37 @@
     <t>カレンダーへ戻る</t>
     <rPh sb="6" eb="7">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ヘッダーにある「設定」リンクを押す。</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4666,6 +4687,831 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6413B5CD-3DEF-4D95-9E88-DB0E411A4959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3236595" y="735330"/>
+          <a:ext cx="1217295" cy="734310"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>予定入れる画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カレンダー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E6E980-10F9-4DFB-9E96-F2DABED3010D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219449" y="3469004"/>
+          <a:ext cx="1217296" cy="779145"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>設定確認画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>151447</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D5AE54-2261-4036-86D9-ED58C868A3A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3865245" y="1525905"/>
+          <a:ext cx="952" cy="527685"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>162877</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDBC14F-2D9A-4ECA-A4E0-E98A8C52CE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="2903220"/>
+          <a:ext cx="952" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>62865</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0F1C20-76E8-4801-B1B6-B92DDEE4BC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3206115" y="2110740"/>
+          <a:ext cx="1213485" cy="734310"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>設定編集画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E9BEF0-177D-4BA4-BC00-599DA6AD5F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3867150" y="4293870"/>
+          <a:ext cx="7620" cy="382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80008</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>20954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5AB62B-FD2E-4251-B304-9413C5EA25EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3223258" y="5859779"/>
+          <a:ext cx="1264922" cy="857251"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン後の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カレンダー表示画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62866BB-264A-4DAC-866E-50F92E61B09D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857625" y="5448300"/>
+          <a:ext cx="11430" cy="382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E115AC-DDEA-4D4E-807B-CDE0FCCC10B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248024" y="4674869"/>
+          <a:ext cx="1217296" cy="782955"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>設定完了画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97F3FC3-7CFC-4452-877B-BD947C787FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3659505" y="2893695"/>
+          <a:ext cx="0" cy="506730"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -12264,8 +13110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37C96AD-2C13-40F6-8A07-7F43B9AAFEAE}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -12853,7 +13699,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
@@ -13108,7 +13954,7 @@
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
@@ -13320,7 +14166,7 @@
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
@@ -13665,4 +14511,1407 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40944C-0D35-414F-AF77-FFA596555C07}">
+  <dimension ref="A1:FQ42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="12" customWidth="1"/>
+    <col min="7" max="26" width="4.109375" style="1" customWidth="1"/>
+    <col min="27" max="29" width="4.109375" style="13" customWidth="1"/>
+    <col min="30" max="33" width="4" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="59"/>
+    </row>
+    <row r="2" spans="1:173" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="61"/>
+    </row>
+    <row r="3" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="61"/>
+    </row>
+    <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
+      <c r="CH4" s="6"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="6"/>
+      <c r="CK4" s="6"/>
+      <c r="CL4" s="6"/>
+      <c r="CM4" s="6"/>
+      <c r="CN4" s="6"/>
+      <c r="CO4" s="6"/>
+      <c r="CP4" s="6"/>
+      <c r="CQ4" s="6"/>
+      <c r="CR4" s="6"/>
+      <c r="CS4" s="6"/>
+      <c r="CT4" s="6"/>
+      <c r="CU4" s="6"/>
+      <c r="CV4" s="6"/>
+      <c r="CW4" s="6"/>
+      <c r="CX4" s="6"/>
+      <c r="CY4" s="6"/>
+      <c r="CZ4" s="6"/>
+      <c r="DA4" s="6"/>
+      <c r="DB4" s="6"/>
+      <c r="DC4" s="6"/>
+      <c r="DD4" s="6"/>
+      <c r="DE4" s="6"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="6"/>
+      <c r="DI4" s="6"/>
+      <c r="DJ4" s="6"/>
+      <c r="DK4" s="6"/>
+      <c r="DL4" s="6"/>
+      <c r="DM4" s="6"/>
+      <c r="DN4" s="6"/>
+      <c r="DO4" s="6"/>
+      <c r="DP4" s="6"/>
+      <c r="DQ4" s="6"/>
+      <c r="DR4" s="6"/>
+      <c r="DS4" s="6"/>
+      <c r="DT4" s="6"/>
+      <c r="DU4" s="6"/>
+      <c r="DV4" s="6"/>
+      <c r="DW4" s="6"/>
+      <c r="DX4" s="6"/>
+      <c r="DY4" s="6"/>
+      <c r="DZ4" s="6"/>
+      <c r="EA4" s="6"/>
+      <c r="EB4" s="6"/>
+      <c r="EC4" s="6"/>
+      <c r="ED4" s="6"/>
+      <c r="EE4" s="6"/>
+      <c r="EF4" s="6"/>
+      <c r="EG4" s="6"/>
+      <c r="EH4" s="6"/>
+      <c r="EI4" s="6"/>
+      <c r="EJ4" s="6"/>
+      <c r="EK4" s="6"/>
+      <c r="EL4" s="6"/>
+      <c r="EM4" s="6"/>
+      <c r="EN4" s="6"/>
+      <c r="EO4" s="6"/>
+      <c r="EP4" s="6"/>
+      <c r="EQ4" s="6"/>
+      <c r="ER4" s="6"/>
+      <c r="ES4" s="6"/>
+      <c r="ET4" s="6"/>
+      <c r="EU4" s="6"/>
+      <c r="EV4" s="6"/>
+      <c r="EW4" s="6"/>
+      <c r="EX4" s="6"/>
+      <c r="EY4" s="6"/>
+      <c r="EZ4" s="6"/>
+      <c r="FA4" s="6"/>
+      <c r="FB4" s="6"/>
+      <c r="FC4" s="6"/>
+      <c r="FD4" s="6"/>
+      <c r="FE4" s="6"/>
+      <c r="FF4" s="6"/>
+      <c r="FG4" s="6"/>
+      <c r="FH4" s="6"/>
+      <c r="FI4" s="6"/>
+      <c r="FJ4" s="6"/>
+      <c r="FK4" s="6"/>
+      <c r="FL4" s="6"/>
+      <c r="FM4" s="6"/>
+      <c r="FN4" s="6"/>
+      <c r="FO4" s="6"/>
+      <c r="FP4" s="6"/>
+      <c r="FQ4" s="6"/>
+    </row>
+    <row r="5" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="23"/>
+    </row>
+    <row r="6" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="23"/>
+    </row>
+    <row r="7" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="23"/>
+    </row>
+    <row r="8" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="23"/>
+    </row>
+    <row r="9" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="23"/>
+    </row>
+    <row r="10" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="23"/>
+    </row>
+    <row r="11" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="23"/>
+    </row>
+    <row r="12" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="23"/>
+    </row>
+    <row r="13" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="23"/>
+    </row>
+    <row r="14" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="23"/>
+    </row>
+    <row r="15" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="23"/>
+    </row>
+    <row r="16" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="23"/>
+    </row>
+    <row r="17" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="23"/>
+    </row>
+    <row r="18" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="23"/>
+    </row>
+    <row r="19" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="23"/>
+    </row>
+    <row r="20" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="23"/>
+    </row>
+    <row r="21" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="23"/>
+    </row>
+    <row r="22" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="23"/>
+    </row>
+    <row r="23" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="30"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="23"/>
+    </row>
+    <row r="24" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="23"/>
+    </row>
+    <row r="25" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="23"/>
+    </row>
+    <row r="26" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="23"/>
+    </row>
+    <row r="27" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="23"/>
+    </row>
+    <row r="28" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="23"/>
+    </row>
+    <row r="29" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="23"/>
+    </row>
+    <row r="30" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="23"/>
+    </row>
+    <row r="31" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="23"/>
+    </row>
+    <row r="32" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="23"/>
+    </row>
+    <row r="33" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="23"/>
+    </row>
+    <row r="34" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="23"/>
+    </row>
+    <row r="35" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="23"/>
+    </row>
+    <row r="36" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="23"/>
+    </row>
+    <row r="37" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="23"/>
+    </row>
+    <row r="38" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="23"/>
+    </row>
+    <row r="39" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="23"/>
+    </row>
+    <row r="40" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="23"/>
+    </row>
+    <row r="41" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="23"/>
+    </row>
+    <row r="42" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/gamen_seni.xlsx
+++ b/gamen_seni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/Design documents/Design-document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{89B82125-C198-4D89-A318-474160891234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FA1CF12-00CC-4B1D-94B7-65A82E54EE04}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{89B82125-C198-4D89-A318-474160891234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C8D312F-2679-488C-AD03-62DA0F6DAC14}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="画面遷移図_アカウント更新" sheetId="15" r:id="rId12"/>
     <sheet name="画面遷移図_アカウント削除" sheetId="16" r:id="rId13"/>
     <sheet name="画面遷移図_パスワード再設定" sheetId="17" r:id="rId14"/>
+    <sheet name="画面遷移図_ログアウト" sheetId="18" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">画面遷移図!$A$1:$AC$42</definedName>
@@ -34,6 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">画面遷移図_アカウント更新!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">画面遷移図_アカウント削除!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">画面遷移図_パスワード再設定!$A$1:$AC$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">画面遷移図_ログアウト!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画面遷移図_ログイン!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">画面遷移図_新規会員登録!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">画面遷移図_設定!$A$1:$AC$42</definedName>
@@ -48,6 +50,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="11">画面遷移図_アカウント更新!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="12">画面遷移図_アカウント削除!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="13">画面遷移図_パスワード再設定!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">画面遷移図_ログアウト!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">画面遷移図_ログイン!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">画面遷移図_新規会員登録!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">画面遷移図_設定!$1:$3</definedName>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="54">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -4709,6 +4712,246 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD75857-BEE4-478C-AC25-CA506B853AFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3320415" y="548640"/>
+          <a:ext cx="1215390" cy="726690"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トップページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244792</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCBED2B-B493-441D-A35C-A4AA6462B48C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="1358265"/>
+          <a:ext cx="952" cy="527685"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>46605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9ABC34-A1C2-4660-A1A7-771E5D476637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="1906905"/>
+          <a:ext cx="1215390" cy="741930"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ログアウト画面</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -18345,7 +18588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E3CC17-7C6A-4ADF-8742-21D77733A7C0}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
@@ -19749,12 +19992,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F284A5-DE81-40C7-A6C7-9C2E8601F5EF}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -20205,6 +20448,9 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
+      <c r="P10" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -20341,7 +20587,6 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -20360,9 +20605,7 @@
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="30" t="s">
-        <v>15</v>
-      </c>
+      <c r="D16" s="30"/>
       <c r="E16" s="21"/>
       <c r="F16" s="30"/>
       <c r="G16" s="21"/>
@@ -20463,6 +20706,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
@@ -20481,7 +20725,6 @@
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -20564,9 +20807,7 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="30" t="s">
-        <v>15</v>
-      </c>
+      <c r="E23" s="30"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -20599,7 +20840,6 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -20687,9 +20927,7 @@
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="D28" s="30"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -20894,9 +21132,7 @@
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="30" t="s">
-        <v>17</v>
-      </c>
+      <c r="E35" s="30"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -21143,8 +21379,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21157,12 +21393,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6687349B-5572-44D8-86E8-363B717E808A}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection sqref="A1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -21768,7 +22004,9 @@
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="30"/>
       <c r="G16" s="21"/>
@@ -21843,9 +22081,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="T18" s="21"/>
-      <c r="U18" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
@@ -21869,15 +22105,11 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="T19" s="21"/>
-      <c r="U19" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
@@ -21893,6 +22125,7 @@
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -21900,9 +22133,7 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
@@ -21977,7 +22208,9 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="30"/>
+      <c r="E23" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -21986,9 +22219,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="O23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -22012,9 +22243,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="O24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -22102,7 +22331,9 @@
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -22307,7 +22538,9 @@
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="30"/>
+      <c r="E35" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -22554,8 +22787,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -22568,12 +22801,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F64EAD9-A321-49CD-817A-682895D0FBBA}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6687349B-5572-44D8-86E8-363B717E808A}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -23254,7 +23487,9 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
+      <c r="U18" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
@@ -23278,11 +23513,15 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="N19" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="O19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
+      <c r="U19" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
@@ -23304,10 +23543,10 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="21" t="s">
-        <v>28</v>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21" t="s">
+        <v>23</v>
       </c>
-      <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
@@ -23318,9 +23557,7 @@
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
-      <c r="Z20" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="23"/>
@@ -23338,9 +23575,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="M21" s="21"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="Q21" s="21"/>
@@ -23352,9 +23587,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
-      <c r="Z21" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="23"/>
@@ -23371,9 +23604,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="M22" s="21"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="V22" s="21"/>
@@ -23399,7 +23630,9 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
+      <c r="O23" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -23423,7 +23656,9 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
+      <c r="O24" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -23474,9 +23709,7 @@
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
-      <c r="V26" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="V26" s="21"/>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
@@ -23499,12 +23732,8 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
-      <c r="O27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="O27" s="21"/>
+      <c r="V27" s="21"/>
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
@@ -23983,12 +24212,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346E22DD-08D9-4F1E-9C4C-447EC6BC28CE}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F64EAD9-A321-49CD-817A-682895D0FBBA}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -24439,9 +24668,6 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
-      <c r="U10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -24467,9 +24693,6 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
-      <c r="U11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -24577,16 +24800,12 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
-      <c r="Q15" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
@@ -24611,16 +24830,12 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-      <c r="Q16" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
@@ -24733,7 +24948,9 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="M20" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="Q20" s="21"/>
@@ -24745,7 +24962,9 @@
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
+      <c r="Z20" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="23"/>
@@ -24763,7 +24982,9 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="M21" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="Q21" s="21"/>
@@ -24775,7 +24996,9 @@
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
+      <c r="Z21" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="23"/>
@@ -24792,7 +25015,9 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="M22" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="V22" s="21"/>
@@ -24814,16 +25039,11 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="21" t="s">
-        <v>35</v>
-      </c>
+      <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
-      <c r="Q23" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -24843,16 +25063,11 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
-      <c r="Q24" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -24903,7 +25118,9 @@
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
-      <c r="V26" s="21"/>
+      <c r="V26" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
@@ -24926,8 +25143,12 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="V27" s="21"/>
+      <c r="O27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="W27" s="21"/>
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
@@ -25094,9 +25315,7 @@
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
-      <c r="P33" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
@@ -25127,9 +25346,7 @@
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
-      <c r="P34" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
@@ -25410,12 +25627,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37C96AD-2C13-40F6-8A07-7F43B9AAFEAE}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346E22DD-08D9-4F1E-9C4C-447EC6BC28CE}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -25866,6 +26083,9 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
+      <c r="U10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -25891,6 +26111,9 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
+      <c r="U11" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -25998,14 +26221,16 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
-      <c r="O15" s="21" t="s">
-        <v>27</v>
+      <c r="O15" s="21"/>
+      <c r="Q15" s="21" t="s">
+        <v>37</v>
       </c>
-      <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
@@ -26030,12 +26255,16 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="Q16" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
@@ -26229,11 +26458,16 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+      <c r="K23" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
+      <c r="Q23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -26253,12 +26487,15 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="K24" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="21" t="s">
-        <v>41</v>
+      <c r="O24" s="21"/>
+      <c r="Q24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
@@ -26469,9 +26706,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
-      <c r="O32" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
@@ -26502,10 +26737,10 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
-      <c r="O33" s="21" t="s">
-        <v>36</v>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21" t="s">
+        <v>39</v>
       </c>
-      <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
@@ -26536,7 +26771,9 @@
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
+      <c r="P34" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
@@ -26817,12 +27054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFB717B-633B-44C8-A7F2-192DA659D27A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37C96AD-2C13-40F6-8A07-7F43B9AAFEAE}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -27297,9 +27534,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
-      <c r="O11" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="O11" s="21"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -27411,6 +27646,9 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
+      <c r="O15" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -27529,9 +27767,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
-      <c r="O19" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="O19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
@@ -27555,6 +27791,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
@@ -27664,7 +27901,9 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
+      <c r="O24" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -27762,9 +28001,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
-      <c r="O28" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="O28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
@@ -27876,6 +28113,11 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
+      <c r="O32" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
@@ -27904,6 +28146,11 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
+      <c r="O33" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
@@ -27963,9 +28210,7 @@
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
-      <c r="O35" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
@@ -28216,12 +28461,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424369B4-5812-4817-A430-7A1A41B6F3A7}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFB717B-633B-44C8-A7F2-192DA659D27A}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -28929,7 +29174,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="21"/>
       <c r="T19" s="21"/>
@@ -29615,12 +29860,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40944C-0D35-414F-AF77-FFA596555C07}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424369B4-5812-4817-A430-7A1A41B6F3A7}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -30096,6 +30341,1405 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="23"/>
+    </row>
+    <row r="12" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="23"/>
+    </row>
+    <row r="13" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="23"/>
+    </row>
+    <row r="14" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="23"/>
+    </row>
+    <row r="15" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="23"/>
+    </row>
+    <row r="16" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="23"/>
+    </row>
+    <row r="17" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="23"/>
+    </row>
+    <row r="18" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="23"/>
+    </row>
+    <row r="19" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="23"/>
+    </row>
+    <row r="20" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="23"/>
+    </row>
+    <row r="21" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="23"/>
+    </row>
+    <row r="22" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="23"/>
+    </row>
+    <row r="23" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="30"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="23"/>
+    </row>
+    <row r="24" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="23"/>
+    </row>
+    <row r="25" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="23"/>
+    </row>
+    <row r="26" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="23"/>
+    </row>
+    <row r="27" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="23"/>
+    </row>
+    <row r="28" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="23"/>
+    </row>
+    <row r="29" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="23"/>
+    </row>
+    <row r="30" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="23"/>
+    </row>
+    <row r="31" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="23"/>
+    </row>
+    <row r="32" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="23"/>
+    </row>
+    <row r="33" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="23"/>
+    </row>
+    <row r="34" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="23"/>
+    </row>
+    <row r="35" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="23"/>
+    </row>
+    <row r="36" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="23"/>
+    </row>
+    <row r="37" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="23"/>
+    </row>
+    <row r="38" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="23"/>
+    </row>
+    <row r="39" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="23"/>
+    </row>
+    <row r="40" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="23"/>
+    </row>
+    <row r="41" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="23"/>
+    </row>
+    <row r="42" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40944C-0D35-414F-AF77-FFA596555C07}">
+  <dimension ref="A1:FQ42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="12" customWidth="1"/>
+    <col min="7" max="26" width="4.109375" style="1" customWidth="1"/>
+    <col min="27" max="29" width="4.109375" style="13" customWidth="1"/>
+    <col min="30" max="33" width="4" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="59"/>
+    </row>
+    <row r="2" spans="1:173" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="61"/>
+    </row>
+    <row r="3" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="61"/>
+    </row>
+    <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
+      <c r="CH4" s="6"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="6"/>
+      <c r="CK4" s="6"/>
+      <c r="CL4" s="6"/>
+      <c r="CM4" s="6"/>
+      <c r="CN4" s="6"/>
+      <c r="CO4" s="6"/>
+      <c r="CP4" s="6"/>
+      <c r="CQ4" s="6"/>
+      <c r="CR4" s="6"/>
+      <c r="CS4" s="6"/>
+      <c r="CT4" s="6"/>
+      <c r="CU4" s="6"/>
+      <c r="CV4" s="6"/>
+      <c r="CW4" s="6"/>
+      <c r="CX4" s="6"/>
+      <c r="CY4" s="6"/>
+      <c r="CZ4" s="6"/>
+      <c r="DA4" s="6"/>
+      <c r="DB4" s="6"/>
+      <c r="DC4" s="6"/>
+      <c r="DD4" s="6"/>
+      <c r="DE4" s="6"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="6"/>
+      <c r="DI4" s="6"/>
+      <c r="DJ4" s="6"/>
+      <c r="DK4" s="6"/>
+      <c r="DL4" s="6"/>
+      <c r="DM4" s="6"/>
+      <c r="DN4" s="6"/>
+      <c r="DO4" s="6"/>
+      <c r="DP4" s="6"/>
+      <c r="DQ4" s="6"/>
+      <c r="DR4" s="6"/>
+      <c r="DS4" s="6"/>
+      <c r="DT4" s="6"/>
+      <c r="DU4" s="6"/>
+      <c r="DV4" s="6"/>
+      <c r="DW4" s="6"/>
+      <c r="DX4" s="6"/>
+      <c r="DY4" s="6"/>
+      <c r="DZ4" s="6"/>
+      <c r="EA4" s="6"/>
+      <c r="EB4" s="6"/>
+      <c r="EC4" s="6"/>
+      <c r="ED4" s="6"/>
+      <c r="EE4" s="6"/>
+      <c r="EF4" s="6"/>
+      <c r="EG4" s="6"/>
+      <c r="EH4" s="6"/>
+      <c r="EI4" s="6"/>
+      <c r="EJ4" s="6"/>
+      <c r="EK4" s="6"/>
+      <c r="EL4" s="6"/>
+      <c r="EM4" s="6"/>
+      <c r="EN4" s="6"/>
+      <c r="EO4" s="6"/>
+      <c r="EP4" s="6"/>
+      <c r="EQ4" s="6"/>
+      <c r="ER4" s="6"/>
+      <c r="ES4" s="6"/>
+      <c r="ET4" s="6"/>
+      <c r="EU4" s="6"/>
+      <c r="EV4" s="6"/>
+      <c r="EW4" s="6"/>
+      <c r="EX4" s="6"/>
+      <c r="EY4" s="6"/>
+      <c r="EZ4" s="6"/>
+      <c r="FA4" s="6"/>
+      <c r="FB4" s="6"/>
+      <c r="FC4" s="6"/>
+      <c r="FD4" s="6"/>
+      <c r="FE4" s="6"/>
+      <c r="FF4" s="6"/>
+      <c r="FG4" s="6"/>
+      <c r="FH4" s="6"/>
+      <c r="FI4" s="6"/>
+      <c r="FJ4" s="6"/>
+      <c r="FK4" s="6"/>
+      <c r="FL4" s="6"/>
+      <c r="FM4" s="6"/>
+      <c r="FN4" s="6"/>
+      <c r="FO4" s="6"/>
+      <c r="FP4" s="6"/>
+      <c r="FQ4" s="6"/>
+    </row>
+    <row r="5" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="23"/>
+    </row>
+    <row r="6" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="23"/>
+    </row>
+    <row r="7" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="23"/>
+    </row>
+    <row r="8" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="23"/>
+    </row>
+    <row r="9" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="23"/>
+    </row>
+    <row r="10" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="23"/>
+    </row>
+    <row r="11" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21" t="s">
         <v>43</v>
       </c>
       <c r="V11" s="21"/>
